--- a/crops.xlsx
+++ b/crops.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Kibet\Desktop\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B3E592-00D5-4127-A426-C217AA791EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244CA581-0FDD-4732-8274-49E367BB0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74BF4324-B5BD-4407-BEC6-4A080F975A16}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1062,9 +1075,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75968FF-B579-486D-9996-0A1DFD072240}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2783,5 +2802,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/crops.xlsx
+++ b/crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Kibet\Desktop\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244CA581-0FDD-4732-8274-49E367BB0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202BD3D-1D0D-4AAD-9C62-FEF4AE771B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74BF4324-B5BD-4407-BEC6-4A080F975A16}"/>
   </bookViews>
@@ -68,151 +68,151 @@
     <t>Khat (Miraa)</t>
   </si>
   <si>
-    <t>KENYA</t>
-  </si>
-  <si>
-    <t>MOMBASA</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>KWALE</t>
-  </si>
-  <si>
-    <t>KILIFI</t>
-  </si>
-  <si>
-    <t>TANA RIVER</t>
-  </si>
-  <si>
-    <t>LAMU</t>
-  </si>
-  <si>
-    <t>TAITA/TAVETA</t>
-  </si>
-  <si>
-    <t>GARISSA</t>
-  </si>
-  <si>
-    <t>WAJIR</t>
-  </si>
-  <si>
-    <t>MANDERA</t>
-  </si>
-  <si>
-    <t>MARSABIT</t>
-  </si>
-  <si>
-    <t>ISIOLO</t>
-  </si>
-  <si>
-    <t>MERU</t>
-  </si>
-  <si>
-    <t>THARAKA-NITHI</t>
-  </si>
-  <si>
-    <t>EMBU</t>
-  </si>
-  <si>
-    <t>KITUI</t>
-  </si>
-  <si>
-    <t>MACHAKOS</t>
-  </si>
-  <si>
-    <t>MAKUENI</t>
-  </si>
-  <si>
-    <t>NYANDARUA</t>
-  </si>
-  <si>
-    <t>NYERI</t>
-  </si>
-  <si>
-    <t>KIRINYAGA</t>
-  </si>
-  <si>
-    <t>MURANG'A</t>
-  </si>
-  <si>
-    <t>KIAMBU</t>
-  </si>
-  <si>
-    <t>TURKANA</t>
-  </si>
-  <si>
-    <t>WEST POKOT</t>
-  </si>
-  <si>
-    <t>SAMBURU</t>
-  </si>
-  <si>
-    <t>TRANS NZOIA</t>
-  </si>
-  <si>
-    <t>UASIN GISHU</t>
-  </si>
-  <si>
-    <t>ELGEYO/MARAKWET</t>
-  </si>
-  <si>
-    <t>NANDI</t>
-  </si>
-  <si>
-    <t>BARINGO</t>
-  </si>
-  <si>
-    <t>LAIKIPIA</t>
-  </si>
-  <si>
-    <t>NAKURU</t>
-  </si>
-  <si>
-    <t>NAROK</t>
-  </si>
-  <si>
-    <t>KAJIADO</t>
-  </si>
-  <si>
-    <t>KERICHO</t>
-  </si>
-  <si>
-    <t>BOMET</t>
-  </si>
-  <si>
-    <t>KAKAMEGA</t>
-  </si>
-  <si>
-    <t>VIHIGA</t>
-  </si>
-  <si>
-    <t>BUNGOMA</t>
-  </si>
-  <si>
-    <t>BUSIA</t>
-  </si>
-  <si>
-    <t>SIAYA</t>
-  </si>
-  <si>
-    <t>KISUMU</t>
-  </si>
-  <si>
-    <t>HOMA BAY</t>
-  </si>
-  <si>
-    <t>MIGORI</t>
-  </si>
-  <si>
-    <t>KISII</t>
-  </si>
-  <si>
-    <t>NYAMIRA</t>
-  </si>
-  <si>
-    <t>NAIROBI</t>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Kwale</t>
+  </si>
+  <si>
+    <t>Kilifi</t>
+  </si>
+  <si>
+    <t>Tana River</t>
+  </si>
+  <si>
+    <t>Lamu</t>
+  </si>
+  <si>
+    <t>Taita/Taveta</t>
+  </si>
+  <si>
+    <t>Garissa</t>
+  </si>
+  <si>
+    <t>Wajir</t>
+  </si>
+  <si>
+    <t>Mandera</t>
+  </si>
+  <si>
+    <t>Marsabit</t>
+  </si>
+  <si>
+    <t>Isiolo</t>
+  </si>
+  <si>
+    <t>Meru</t>
+  </si>
+  <si>
+    <t>Tharaka-Nithi</t>
+  </si>
+  <si>
+    <t>Embu</t>
+  </si>
+  <si>
+    <t>Kitui</t>
+  </si>
+  <si>
+    <t>Machakos</t>
+  </si>
+  <si>
+    <t>Makueni</t>
+  </si>
+  <si>
+    <t>Nyandarua</t>
+  </si>
+  <si>
+    <t>Nyeri</t>
+  </si>
+  <si>
+    <t>Kirinyaga</t>
+  </si>
+  <si>
+    <t>Murang'a</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>Turkana</t>
+  </si>
+  <si>
+    <t>West Pokot</t>
+  </si>
+  <si>
+    <t>Samburu</t>
+  </si>
+  <si>
+    <t>Trans Nzoia</t>
+  </si>
+  <si>
+    <t>Uasin Gishu</t>
+  </si>
+  <si>
+    <t>Elgeyo/Marakwet</t>
+  </si>
+  <si>
+    <t>Nandi</t>
+  </si>
+  <si>
+    <t>Baringo</t>
+  </si>
+  <si>
+    <t>Laikipia</t>
+  </si>
+  <si>
+    <t>Nakuru</t>
+  </si>
+  <si>
+    <t>Narok</t>
+  </si>
+  <si>
+    <t>Kajiado</t>
+  </si>
+  <si>
+    <t>Kericho</t>
+  </si>
+  <si>
+    <t>Bomet</t>
+  </si>
+  <si>
+    <t>Kakamega</t>
+  </si>
+  <si>
+    <t>Vihiga</t>
+  </si>
+  <si>
+    <t>Bungoma</t>
+  </si>
+  <si>
+    <t>Busia</t>
+  </si>
+  <si>
+    <t>Siaya</t>
+  </si>
+  <si>
+    <t>Kisumu</t>
+  </si>
+  <si>
+    <t>Homa Bay</t>
+  </si>
+  <si>
+    <t>Migori</t>
+  </si>
+  <si>
+    <t>Kisii</t>
+  </si>
+  <si>
+    <t>Nyamira</t>
+  </si>
+  <si>
+    <t>Nairobi City</t>
   </si>
 </sst>
 </file>
@@ -1075,12 +1075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75968FF-B579-486D-9996-0A1DFD072240}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.7265625" customWidth="1"/>
   </cols>
@@ -1122,7 +1121,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>6354211</v>
@@ -1157,37 +1156,37 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>12497</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>1688</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>602</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1198,10 +1197,10 @@
         <v>108074</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1063</v>
@@ -1222,7 +1221,7 @@
         <v>22803</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1233,13 +1232,13 @@
         <v>161188</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>6808</v>
@@ -1251,13 +1250,13 @@
         <v>47561</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>27940</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1268,13 +1267,13 @@
         <v>35094</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>1109</v>
@@ -1286,13 +1285,13 @@
         <v>2228</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>1691</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1303,13 +1302,13 @@
         <v>18678</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2742</v>
@@ -1327,7 +1326,7 @@
         <v>8085</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1338,10 +1337,10 @@
         <v>56920</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>7963</v>
@@ -1362,7 +1361,7 @@
         <v>543</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1373,31 +1372,31 @@
         <v>47645</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>1726</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1408,31 +1407,31 @@
         <v>63433</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1443,31 +1442,31 @@
         <v>62639</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>2685</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1478,31 +1477,31 @@
         <v>39167</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1513,31 +1512,31 @@
         <v>24271</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1563,13 +1562,13 @@
         <v>27457</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>29545</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K14">
         <v>85023</v>
@@ -1598,13 +1597,13 @@
         <v>14102</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>9280</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K15">
         <v>8404</v>
@@ -1633,13 +1632,13 @@
         <v>26771</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>27488</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16">
         <v>34900</v>
@@ -1653,10 +1652,10 @@
         <v>215322</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>12066</v>
@@ -1668,16 +1667,16 @@
         <v>35471</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1688,7 +1687,7 @@
         <v>231341</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>23525</v>
@@ -1703,16 +1702,16 @@
         <v>75504</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>6519</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1723,7 +1722,7 @@
         <v>193531</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>3371</v>
@@ -1738,16 +1737,16 @@
         <v>70130</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I19">
         <v>4293</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1758,10 +1757,10 @@
         <v>140854</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>2892</v>
@@ -1770,19 +1769,19 @@
         <v>1580</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1808,16 +1807,16 @@
         <v>10228</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I21">
         <v>25436</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1843,13 +1842,13 @@
         <v>15311</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22">
         <v>28508</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K22">
         <v>5821</v>
@@ -1878,16 +1877,16 @@
         <v>38361</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>35618</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1913,16 +1912,16 @@
         <v>9855</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I24">
         <v>11748</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1933,31 +1932,31 @@
         <v>61209</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1968,7 +1967,7 @@
         <v>89828</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>1026</v>
@@ -1983,16 +1982,16 @@
         <v>4426</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2003,31 +2002,31 @@
         <v>43149</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2053,16 +2052,16 @@
         <v>6721</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2073,10 +2072,10 @@
         <v>141547</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>8430</v>
@@ -2088,16 +2087,16 @@
         <v>2505</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2123,16 +2122,16 @@
         <v>6430</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>518</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2158,16 +2157,16 @@
         <v>5806</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2178,7 +2177,7 @@
         <v>100465</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>3069</v>
@@ -2193,16 +2192,16 @@
         <v>10600</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <v>1673</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2213,10 +2212,10 @@
         <v>90729</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>5273</v>
@@ -2228,16 +2227,16 @@
         <v>2103</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33">
         <v>773</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2251,7 +2250,7 @@
         <v>10041</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>20209</v>
@@ -2263,16 +2262,16 @@
         <v>6560</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2283,10 +2282,10 @@
         <v>181706</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>13430</v>
@@ -2298,16 +2297,16 @@
         <v>2332</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2318,31 +2317,31 @@
         <v>97565</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>2994</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <v>2776</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2368,16 +2367,16 @@
         <v>5588</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2403,16 +2402,16 @@
         <v>3679</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2438,16 +2437,16 @@
         <v>49075</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39">
         <v>2292</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2473,16 +2472,16 @@
         <v>26209</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2508,16 +2507,16 @@
         <v>54581</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I41">
         <v>2428</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2528,7 +2527,7 @@
         <v>148257</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>1498</v>
@@ -2543,16 +2542,16 @@
         <v>35530</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42">
         <v>1148</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2563,10 +2562,10 @@
         <v>194362</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>31729</v>
@@ -2578,16 +2577,16 @@
         <v>44660</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I43">
         <v>1262</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2598,10 +2597,10 @@
         <v>147117</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>19478</v>
@@ -2613,16 +2612,16 @@
         <v>28305</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2648,16 +2647,16 @@
         <v>34557</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I45">
         <v>1554</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2668,7 +2667,7 @@
         <v>169958</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>3864</v>
@@ -2683,16 +2682,16 @@
         <v>27231</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I46">
         <v>1196</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2718,16 +2717,16 @@
         <v>17144</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2753,16 +2752,16 @@
         <v>3502</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2773,31 +2772,31 @@
         <v>32258</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
